--- a/biology/Biologie cellulaire et moléculaire/Cortex_surrénal/Cortex_surrénal.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cortex_surrénal/Cortex_surrénal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cortex_surr%C3%A9nal</t>
+          <t>Cortex_surrénal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortex surrénal ou cortico-surrénale, comme son nom l'indique, constitue le cortex (l'écorce) de la glande surrénale[1],[2]. Elle joue un rôle important dans la régulation du métabolisme des ions et des sels et à une action anti-inflammatoire. Elle régule, également, la production d'androgènes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex surrénal ou cortico-surrénale, comme son nom l'indique, constitue le cortex (l'écorce) de la glande surrénale,. Elle joue un rôle important dans la régulation du métabolisme des ions et des sels et à une action anti-inflammatoire. Elle régule, également, la production d'androgènes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cortex_surr%C3%A9nal</t>
+          <t>Cortex_surrénal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortex surrénal dérive du mésoderme[4]. Il est composé de cellules glandulaires endocrines à sécrétion lipidique divisé en trois zones qui se répartissent en trois couches successives :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex surrénal dérive du mésoderme. Il est composé de cellules glandulaires endocrines à sécrétion lipidique divisé en trois zones qui se répartissent en trois couches successives :
 Dans la couche distale du cortex surrénale se trouve la zone glomérulaire (G). Les cellules y sont organisées en îlots. Ils produisent des minéralocorticoïdes qui permettent la régulation du métabolisme des ions et des sels.
 Dans la couche suivante se trouve la zone fasciculaire (F). Les cellules y sont organisées en cordons. Elles produisent les glucocorticoïdes (cortisone, hydrocortisone) qui ont une action anti-inflammatoire.
 Dans la dernière couche du cortex surrénal, se trouve la zone réticulaire (R). Les cellules y sont organisées en îlots. Ils produisent l'androgène. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cortex_surr%C3%A9nal</t>
+          <t>Cortex_surrénal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Coloration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En microscopie optique, coloration de routine (Trichrome de Masson bleu, vert, etc.), coupe paraffine (extraction des lipides).
 </t>
